--- a/raw_data/serial.xlsx
+++ b/raw_data/serial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="-80" windowWidth="24800" windowHeight="15920" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="-80" windowWidth="24800" windowHeight="15920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>lawyers</t>
   </si>
@@ -45,6 +45,10 @@
     <t>NotGuiltyPct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -63,6 +67,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -417,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -669,9 +674,123 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14"/>
-    <row r="20" spans="1:4" ht="14"/>
-    <row r="21" spans="1:4" ht="14"/>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14">
+      <c r="A26" s="1">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>49</v>
+      </c>
+      <c r="D26" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14">
+      <c r="A27" s="1">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
